--- a/data/trans_orig/P04B3_1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>103107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78507</v>
+        <v>76898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133142</v>
+        <v>132792</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2528409301172887</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1925156472277515</v>
+        <v>0.1885720841931316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3264944288545383</v>
+        <v>0.3256363930989973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -762,19 +762,19 @@
         <v>91881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71864</v>
+        <v>71223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114795</v>
+        <v>116250</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.253457044742092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1982380838666284</v>
+        <v>0.1964701490630833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3166666536795512</v>
+        <v>0.320680045948409</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -783,19 +783,19 @@
         <v>194988</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>164955</v>
+        <v>163847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>231816</v>
+        <v>233074</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.25313087879805</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2141424816386734</v>
+        <v>0.2127040122700506</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3009407318592499</v>
+        <v>0.3025732577204581</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>46648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29270</v>
+        <v>28314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71352</v>
+        <v>71902</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1143925236353878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07177675734761423</v>
+        <v>0.06943127830872965</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1749709223812066</v>
+        <v>0.1763205824695779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -833,19 +833,19 @@
         <v>56662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40576</v>
+        <v>41036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75240</v>
+        <v>79931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1563049896234333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1119303421421803</v>
+        <v>0.1131978098936643</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2075513119491663</v>
+        <v>0.2204923008651307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -854,19 +854,19 @@
         <v>103311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79664</v>
+        <v>80286</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>132827</v>
+        <v>135529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.13411687967476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1034190952537506</v>
+        <v>0.1042264979847346</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1724341193769305</v>
+        <v>0.1759419738613519</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>73586</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50183</v>
+        <v>50385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99965</v>
+        <v>104117</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.180449526704949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1230602517028619</v>
+        <v>0.1235547384696827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2451376295902288</v>
+        <v>0.2553176655496542</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -904,19 +904,19 @@
         <v>47074</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31497</v>
+        <v>29640</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67239</v>
+        <v>66082</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1298545644769984</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08688583699310802</v>
+        <v>0.08176225136089722</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1854809594384852</v>
+        <v>0.1822894955967002</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -925,19 +925,19 @@
         <v>120660</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90584</v>
+        <v>92953</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>154621</v>
+        <v>159719</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1566391155240052</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1175952885742565</v>
+        <v>0.1206698880100152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2007271384306941</v>
+        <v>0.2073454158518614</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>184452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152777</v>
+        <v>152938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216209</v>
+        <v>219694</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4523170195423746</v>
+        <v>0.4523170195423745</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3746444449450544</v>
+        <v>0.3750379865879253</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5301921975672853</v>
+        <v>0.5387379987724339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -975,19 +975,19 @@
         <v>166895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>142766</v>
+        <v>141050</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193019</v>
+        <v>193679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4603834011574762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3938253976565119</v>
+        <v>0.3890914030356908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5324475351199792</v>
+        <v>0.5342687694810568</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -996,19 +996,19 @@
         <v>351346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>309773</v>
+        <v>310247</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>392867</v>
+        <v>395141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4561131260031849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4021431876636968</v>
+        <v>0.4027586102942794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5100142656451965</v>
+        <v>0.512966842480034</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>136235</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>113158</v>
+        <v>113044</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163194</v>
+        <v>160878</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2866622737907278</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2381045015392974</v>
+        <v>0.2378637426638845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3433870011767564</v>
+        <v>0.3385151696967256</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>108</v>
@@ -1121,19 +1121,19 @@
         <v>115768</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>97917</v>
+        <v>95680</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>137130</v>
+        <v>134271</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2311850075387845</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.195537794665004</v>
+        <v>0.1910698874769058</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2738451363360119</v>
+        <v>0.2681354375402067</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>203</v>
@@ -1142,19 +1142,19 @@
         <v>252003</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>221544</v>
+        <v>219209</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>283274</v>
+        <v>281876</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2581986328967968</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2269901346146093</v>
+        <v>0.2245983663766597</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2902385942572484</v>
+        <v>0.288806026563459</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>60410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45038</v>
+        <v>43651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82746</v>
+        <v>81745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1271121471801488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0947675848341348</v>
+        <v>0.09184925911833343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1741106727652438</v>
+        <v>0.1720042477790798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1192,19 +1192,19 @@
         <v>64735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51156</v>
+        <v>49453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82556</v>
+        <v>79630</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1292740504457303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1021569836188085</v>
+        <v>0.09875700078737935</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1648623823215152</v>
+        <v>0.1590191879452527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -1213,19 +1213,19 @@
         <v>125145</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100758</v>
+        <v>102466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150086</v>
+        <v>150392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1282213517671137</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1032356167047458</v>
+        <v>0.1049846146082111</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1537755126623995</v>
+        <v>0.1540889240775864</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>75935</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54637</v>
+        <v>54352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99963</v>
+        <v>100669</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1597808192294346</v>
+        <v>0.1597808192294345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1149658821532749</v>
+        <v>0.1143657909012079</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2103390417189535</v>
+        <v>0.2118250489724755</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>82</v>
@@ -1263,19 +1263,19 @@
         <v>95054</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77595</v>
+        <v>77030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114028</v>
+        <v>113585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1898204750690644</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1549557648034081</v>
+        <v>0.1538275848078339</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2277118594355744</v>
+        <v>0.2268265294590921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>120</v>
@@ -1284,19 +1284,19 @@
         <v>170989</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>142054</v>
+        <v>144065</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>202131</v>
+        <v>203071</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1751932220777193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1455467542316391</v>
+        <v>0.1476064017771369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2071000383208731</v>
+        <v>0.2080635522822354</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>202667</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>174243</v>
+        <v>175991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>230014</v>
+        <v>231620</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4264447597996888</v>
+        <v>0.4264447597996887</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3666369075521393</v>
+        <v>0.3703157801547717</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4839882093571777</v>
+        <v>0.4873666648331293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>208</v>
@@ -1334,19 +1334,19 @@
         <v>225201</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>201159</v>
+        <v>200803</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>248856</v>
+        <v>249041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4497204669464208</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4017097823290889</v>
+        <v>0.4009990206968981</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4969600050601784</v>
+        <v>0.4973281171253444</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>336</v>
@@ -1355,19 +1355,19 @@
         <v>427868</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>391430</v>
+        <v>392590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>464940</v>
+        <v>463840</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4383867932583702</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4010535922368949</v>
+        <v>0.4022413582304968</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4763706080065348</v>
+        <v>0.4752434754698768</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>152366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130018</v>
+        <v>132582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174616</v>
+        <v>176167</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2462760276339622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2101543176187401</v>
+        <v>0.2142986348749381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2822399880915088</v>
+        <v>0.2847471764596073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -1480,19 +1480,19 @@
         <v>139769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122996</v>
+        <v>123856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>159121</v>
+        <v>161421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2248983620875488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1979086703326768</v>
+        <v>0.1992922034889614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.256036172978224</v>
+        <v>0.2597368027924656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>323</v>
@@ -1501,19 +1501,19 @@
         <v>292135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263588</v>
+        <v>263605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>320933</v>
+        <v>319937</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2355630794624739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2125438546206744</v>
+        <v>0.2125574071778278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2587838116263584</v>
+        <v>0.2579810505213603</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>77591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>60502</v>
+        <v>60397</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>94629</v>
+        <v>96265</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1254133909828337</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09779197180836102</v>
+        <v>0.09762157525317337</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1529523268420756</v>
+        <v>0.1555978114648841</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -1551,19 +1551,19 @@
         <v>66704</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55251</v>
+        <v>54803</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80512</v>
+        <v>81116</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1073308446947277</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08890304079560463</v>
+        <v>0.08818092372119335</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1295490084632905</v>
+        <v>0.130521640844224</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>160</v>
@@ -1572,19 +1572,19 @@
         <v>144295</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>125024</v>
+        <v>124801</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>169298</v>
+        <v>166185</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1163517195495131</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1008126755840013</v>
+        <v>0.1006328157670699</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1365131284080377</v>
+        <v>0.1340030348305512</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>99787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81539</v>
+        <v>80739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120783</v>
+        <v>121103</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1612901516004816</v>
+        <v>0.1612901516004817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1317958091210154</v>
+        <v>0.1305018594835513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1952270886723562</v>
+        <v>0.1957440513679038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -1622,19 +1622,19 @@
         <v>115380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100204</v>
+        <v>98829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132219</v>
+        <v>131362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1856546415688589</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1612353728384827</v>
+        <v>0.1590223745125285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2127492920963079</v>
+        <v>0.2113707525555125</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>230</v>
@@ -1643,19 +1643,19 @@
         <v>215167</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>189490</v>
+        <v>190524</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>243204</v>
+        <v>240198</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1734998813153223</v>
+        <v>0.1734998813153224</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1527953473762194</v>
+        <v>0.1536287184283429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1961076176026303</v>
+        <v>0.1936834226555111</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>288936</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>265077</v>
+        <v>261044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>319564</v>
+        <v>315463</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4670204297827225</v>
+        <v>0.4670204297827224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4284563969176183</v>
+        <v>0.4219373441184291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5165254342132563</v>
+        <v>0.5098960836700889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>426</v>
@@ -1693,19 +1693,19 @@
         <v>299625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>277526</v>
+        <v>279421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>318597</v>
+        <v>321673</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4821161516488645</v>
+        <v>0.4821161516488646</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4465574145607957</v>
+        <v>0.4496080182859511</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5126439654476329</v>
+        <v>0.517593074099007</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>677</v>
@@ -1714,19 +1714,19 @@
         <v>588561</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>553936</v>
+        <v>555381</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>622314</v>
+        <v>622841</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4745853196726904</v>
+        <v>0.4745853196726905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.446666035351438</v>
+        <v>0.4478312415386799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5018020261355156</v>
+        <v>0.5022271275536651</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>160404</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138802</v>
+        <v>140091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>182230</v>
+        <v>185455</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2289467129011077</v>
+        <v>0.2289467129011076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1981133647987528</v>
+        <v>0.1999530940483325</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2600992111129088</v>
+        <v>0.2647022159892057</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>266</v>
@@ -1839,19 +1839,19 @@
         <v>186414</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>168761</v>
+        <v>167812</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>206547</v>
+        <v>205498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2532179381639906</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2292385584854115</v>
+        <v>0.2279503320662759</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.280565659392554</v>
+        <v>0.2791413356894185</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>417</v>
@@ -1860,19 +1860,19 @@
         <v>346818</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>320016</v>
+        <v>318929</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>375273</v>
+        <v>378294</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2413826955792362</v>
+        <v>0.2413826955792363</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2227290101414682</v>
+        <v>0.2219724235542105</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2611873748764239</v>
+        <v>0.2632897303554818</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>96008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78460</v>
+        <v>80050</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114842</v>
+        <v>118905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1370327941201687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1119869505396249</v>
+        <v>0.1142566319596359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1639160052251727</v>
+        <v>0.1697151879439507</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -1910,19 +1910,19 @@
         <v>109920</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96681</v>
+        <v>93996</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126426</v>
+        <v>124835</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1493109518779988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1313277992913454</v>
+        <v>0.1276801227907777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1717327701715888</v>
+        <v>0.1695707469977924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>257</v>
@@ -1931,19 +1931,19 @@
         <v>205927</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>182526</v>
+        <v>183368</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>232664</v>
+        <v>231844</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1433238220984393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1270370540094904</v>
+        <v>0.1276227772827113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1619325587204403</v>
+        <v>0.1613620046696992</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>115931</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>98307</v>
+        <v>95249</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>138787</v>
+        <v>137670</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1654701588612753</v>
+        <v>0.1654701588612752</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1403150120415025</v>
+        <v>0.1359504907900562</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1980924910854681</v>
+        <v>0.196498700816203</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>171</v>
@@ -1981,19 +1981,19 @@
         <v>117996</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>102239</v>
+        <v>102838</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>134052</v>
+        <v>135280</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1602820611746726</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1388778286452446</v>
+        <v>0.1396915310251868</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.18209112468424</v>
+        <v>0.183759339542498</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>272</v>
@@ -2002,19 +2002,19 @@
         <v>233928</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>207612</v>
+        <v>211117</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>260788</v>
+        <v>261712</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1628119043947528</v>
+        <v>0.1628119043947529</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1444960777227512</v>
+        <v>0.1469361026841157</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1815061707865478</v>
+        <v>0.1821494794626109</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>328274</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>302306</v>
+        <v>301619</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>356385</v>
+        <v>355725</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4685503341174485</v>
+        <v>0.4685503341174484</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4314859207520388</v>
+        <v>0.4305042932793272</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5086737153264178</v>
+        <v>0.5077316865519267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>536</v>
@@ -2052,19 +2052,19 @@
         <v>321850</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>301612</v>
+        <v>299426</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>342481</v>
+        <v>343618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.437189048783338</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4096991565697888</v>
+        <v>0.4067286925934385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4652141960207535</v>
+        <v>0.4667583347033042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>859</v>
@@ -2073,19 +2073,19 @@
         <v>650124</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>615552</v>
+        <v>617491</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>685254</v>
+        <v>683740</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4524815779275715</v>
+        <v>0.4524815779275716</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4284193109663307</v>
+        <v>0.4297692642890446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4769317251798534</v>
+        <v>0.4758779940382447</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>156002</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>137298</v>
+        <v>137104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>176563</v>
+        <v>178828</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2560160383666103</v>
+        <v>0.2560160383666104</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2253201740394755</v>
+        <v>0.2250022540323875</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.289758597716588</v>
+        <v>0.2934758758300063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>244</v>
@@ -2198,19 +2198,19 @@
         <v>161137</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>144827</v>
+        <v>144967</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>179064</v>
+        <v>179334</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2649635404085462</v>
+        <v>0.2649635404085463</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2381437961952492</v>
+        <v>0.2383744379483283</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2944421861365146</v>
+        <v>0.2948854906104557</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>423</v>
@@ -2219,19 +2219,19 @@
         <v>317139</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>291436</v>
+        <v>292520</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>344105</v>
+        <v>342874</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2604853838214435</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2393734437149973</v>
+        <v>0.2402642160622523</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2826336714683693</v>
+        <v>0.2816225957385638</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>73711</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59387</v>
+        <v>59016</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89801</v>
+        <v>89668</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1209679326174096</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09745994447056519</v>
+        <v>0.09685119363727486</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1473726675451296</v>
+        <v>0.1471539701442992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>165</v>
@@ -2269,19 +2269,19 @@
         <v>102520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>89396</v>
+        <v>88883</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>118132</v>
+        <v>117439</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1685772114366527</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1469969330150232</v>
+        <v>0.1461536512734931</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1942480771776606</v>
+        <v>0.1931099400152136</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>244</v>
@@ -2290,19 +2290,19 @@
         <v>176231</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155313</v>
+        <v>156412</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>198499</v>
+        <v>198143</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1447491301965088</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.127567777304589</v>
+        <v>0.1284704100789783</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1630387860903407</v>
+        <v>0.1627464213401547</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>114634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98380</v>
+        <v>96839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>135880</v>
+        <v>134109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1881259902224976</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1614522619076931</v>
+        <v>0.1589229528142603</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2229923946957022</v>
+        <v>0.2200861973111677</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -2340,19 +2340,19 @@
         <v>89793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76739</v>
+        <v>76593</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103632</v>
+        <v>103815</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1476495141236329</v>
+        <v>0.147649514123633</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1261841295339761</v>
+        <v>0.1259443407206636</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1704064427914136</v>
+        <v>0.1707068074051344</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>257</v>
@@ -2361,19 +2361,19 @@
         <v>204427</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>183845</v>
+        <v>181558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>230027</v>
+        <v>228895</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1679076819581069</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1510024917878784</v>
+        <v>0.1491244492624719</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.188934735362035</v>
+        <v>0.1880053272830942</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>264999</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>242555</v>
+        <v>240565</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>286999</v>
+        <v>288506</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4348900387934824</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3980578922050027</v>
+        <v>0.3947914392047668</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4709945089125798</v>
+        <v>0.4734675805383086</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>453</v>
@@ -2411,19 +2411,19 @@
         <v>254698</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>234647</v>
+        <v>235562</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>272749</v>
+        <v>273486</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.4188097340311678</v>
+        <v>0.4188097340311681</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3858386821752355</v>
+        <v>0.3873432396361167</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4484906611633765</v>
+        <v>0.4497028686662304</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>740</v>
@@ -2432,19 +2432,19 @@
         <v>519697</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>490558</v>
+        <v>490026</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>550074</v>
+        <v>548277</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4268578040239407</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4029244434817816</v>
+        <v>0.4024871653117176</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4518086084156425</v>
+        <v>0.4503324082638343</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>105240</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>91273</v>
+        <v>91353</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119418</v>
+        <v>119057</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.258523173571043</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2242136040499082</v>
+        <v>0.2244107847214223</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2933522031786407</v>
+        <v>0.2924651525809689</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>192</v>
@@ -2557,19 +2557,19 @@
         <v>109083</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>96254</v>
+        <v>97664</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>122723</v>
+        <v>122623</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2483861844767957</v>
+        <v>0.2483861844767956</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2191756644781531</v>
+        <v>0.2223843175333</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.279444547641641</v>
+        <v>0.279217738334587</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>352</v>
@@ -2578,19 +2578,19 @@
         <v>214322</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>195177</v>
+        <v>195605</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>236091</v>
+        <v>236153</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2532625007979493</v>
+        <v>0.2532625007979494</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2306381407016646</v>
+        <v>0.2311439771433551</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2789862124994517</v>
+        <v>0.2790593611272841</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>62544</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>50377</v>
+        <v>50497</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76484</v>
+        <v>76123</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1536405648279186</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1237515795310153</v>
+        <v>0.1240458572261316</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1878855807646079</v>
+        <v>0.1869981399161033</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>113</v>
@@ -2628,19 +2628,19 @@
         <v>60537</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>51445</v>
+        <v>51078</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>71489</v>
+        <v>71429</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1378444719684331</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1171433670408051</v>
+        <v>0.1163066234158349</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1627837740813157</v>
+        <v>0.1626479144341232</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>193</v>
@@ -2649,19 +2649,19 @@
         <v>123081</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>106352</v>
+        <v>107428</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>139587</v>
+        <v>140227</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1454430542205221</v>
+        <v>0.1454430542205222</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1256754351998721</v>
+        <v>0.1269462423533537</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1649480267084571</v>
+        <v>0.1657042103251918</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>66488</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>54942</v>
+        <v>55162</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>79257</v>
+        <v>81751</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1633282556436093</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1349658958680117</v>
+        <v>0.1355068452840799</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1946962010648854</v>
+        <v>0.2008231337251135</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>112</v>
@@ -2699,19 +2699,19 @@
         <v>63952</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52916</v>
+        <v>53361</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75468</v>
+        <v>75283</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1456216299331451</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1204921644939317</v>
+        <v>0.1215056085650576</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1718449671558646</v>
+        <v>0.1714231244768094</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>199</v>
@@ -2720,19 +2720,19 @@
         <v>130440</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>113579</v>
+        <v>115316</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>147226</v>
+        <v>149079</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1541392585052716</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1342145427462294</v>
+        <v>0.1362675997224109</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1739753445548248</v>
+        <v>0.1761646887051224</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>172809</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>155685</v>
+        <v>155149</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>189346</v>
+        <v>189513</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4245080059574291</v>
+        <v>0.424508005957429</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3824425618472824</v>
+        <v>0.3811257385425167</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4651331528820416</v>
+        <v>0.4655429731622897</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>410</v>
@@ -2770,19 +2770,19 @@
         <v>205595</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>191249</v>
+        <v>190059</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>221414</v>
+        <v>219369</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4681477136216262</v>
+        <v>0.4681477136216261</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4354820888364589</v>
+        <v>0.4327735052086595</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5041700850015023</v>
+        <v>0.4995133612186025</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>653</v>
@@ -2791,19 +2791,19 @@
         <v>378403</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>357411</v>
+        <v>353631</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>402801</v>
+        <v>399303</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4471551864762568</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4223487141574031</v>
+        <v>0.4178815260927509</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4759861544083685</v>
+        <v>0.4718516361908986</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>77539</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>66053</v>
+        <v>65288</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>90399</v>
+        <v>89829</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2499657753795718</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2129371850226345</v>
+        <v>0.2104723911091567</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2914229560404062</v>
+        <v>0.2895871283250503</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>192</v>
@@ -2916,19 +2916,19 @@
         <v>107756</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>94630</v>
+        <v>94682</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>121762</v>
+        <v>123024</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2319288242493256</v>
+        <v>0.2319288242493255</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2036759278163364</v>
+        <v>0.2037879373068973</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2620730989188649</v>
+        <v>0.2647906177538365</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>310</v>
@@ -2937,19 +2937,19 @@
         <v>185295</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>168648</v>
+        <v>168512</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>205274</v>
+        <v>203049</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2391500164831621</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2176641366855735</v>
+        <v>0.2174886899755649</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.264935263271822</v>
+        <v>0.2620636145386865</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>50782</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41104</v>
+        <v>40256</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>62665</v>
+        <v>61632</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1637074984737558</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1325076410784462</v>
+        <v>0.1297749034804663</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2020175891958373</v>
+        <v>0.1986850847864892</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>130</v>
@@ -2987,19 +2987,19 @@
         <v>67547</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>56663</v>
+        <v>56123</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78660</v>
+        <v>79662</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1453841405551231</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1219582574935458</v>
+        <v>0.1207965530754778</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1693036576126889</v>
+        <v>0.17146084054558</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>208</v>
@@ -3008,19 +3008,19 @@
         <v>118329</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>104364</v>
+        <v>104680</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>133366</v>
+        <v>136680</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1527199973163002</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1346963388753158</v>
+        <v>0.1351052170751778</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1721279164651028</v>
+        <v>0.1764054358602583</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>56124</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44682</v>
+        <v>44979</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>69010</v>
+        <v>69185</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1809307679382105</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.144042922114882</v>
+        <v>0.144999728005433</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2224715217711029</v>
+        <v>0.2230341116429054</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>150</v>
@@ -3058,19 +3058,19 @@
         <v>84792</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>72980</v>
+        <v>73309</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>98892</v>
+        <v>97727</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1825014221703961</v>
+        <v>0.182501422170396</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1570775564553724</v>
+        <v>0.1577874132047103</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2128495657652939</v>
+        <v>0.2103433163737463</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>223</v>
@@ -3079,19 +3079,19 @@
         <v>140916</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>125230</v>
+        <v>123273</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>158899</v>
+        <v>158336</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1818726021408024</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1616279227783692</v>
+        <v>0.1591019973180347</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.205082484238559</v>
+        <v>0.2043550663285702</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>125753</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>112552</v>
+        <v>112074</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>141261</v>
+        <v>141337</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4053959582084616</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3628399152667999</v>
+        <v>0.3612989624181529</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4553894147021891</v>
+        <v>0.4556363269138338</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>409</v>
@@ -3129,19 +3129,19 @@
         <v>204514</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>187540</v>
+        <v>189259</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>219357</v>
+        <v>220745</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4401856130251552</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4036504716581585</v>
+        <v>0.4073515239957282</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4721334163669356</v>
+        <v>0.4751200534027608</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>598</v>
@@ -3150,19 +3150,19 @@
         <v>330267</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>307358</v>
+        <v>309551</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>351882</v>
+        <v>353061</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4262573840597352</v>
+        <v>0.4262573840597353</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3966900875117625</v>
+        <v>0.3995206562353412</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4541543734259579</v>
+        <v>0.4556761610037623</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>890893</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>834264</v>
+        <v>842170</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>947701</v>
+        <v>951565</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2524519287648449</v>
+        <v>0.2524519287648448</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2364050562191417</v>
+        <v>0.2386453207572414</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2685494188041386</v>
+        <v>0.2696443692780311</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1240</v>
@@ -3275,19 +3275,19 @@
         <v>911808</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>865300</v>
+        <v>867654</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>959600</v>
+        <v>962287</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2442659416766128</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2318067546103068</v>
+        <v>0.2324375740690781</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2570691886406873</v>
+        <v>0.2577888191517282</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2133</v>
@@ -3296,19 +3296,19 @@
         <v>1802701</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1725736</v>
+        <v>1733454</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1872521</v>
+        <v>1876820</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2482440177303333</v>
+        <v>0.2482440177303332</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2376453346690838</v>
+        <v>0.2387081819062324</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2578586279814913</v>
+        <v>0.2584506664944065</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>467694</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>426376</v>
+        <v>428180</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>510181</v>
+        <v>508393</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.132530072912581</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1208220565085242</v>
+        <v>0.1213331631691899</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1445698163477051</v>
+        <v>0.1440631253279197</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>762</v>
@@ -3346,19 +3346,19 @@
         <v>528624</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>494132</v>
+        <v>492486</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>568321</v>
+        <v>565778</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1416140711641379</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1323739414884791</v>
+        <v>0.1319329815932082</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1522484657586125</v>
+        <v>0.1515672151654714</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1219</v>
@@ -3367,19 +3367,19 @@
         <v>996318</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>938482</v>
+        <v>945062</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1056143</v>
+        <v>1059072</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.137199596095089</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.129235261145695</v>
+        <v>0.1301413055284129</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1454379094486294</v>
+        <v>0.1458412178789027</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>602486</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>549134</v>
+        <v>552259</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>655717</v>
+        <v>654783</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1707260203799952</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1556078744247161</v>
+        <v>0.1564933537975193</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1858101017788956</v>
+        <v>0.185545388811324</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>825</v>
@@ -3417,19 +3417,19 @@
         <v>614041</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>569828</v>
+        <v>569302</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>656919</v>
+        <v>655790</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1644965975451844</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1526524206175233</v>
+        <v>0.1525112683436124</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1759832839369472</v>
+        <v>0.1756807612401255</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1352</v>
@@ -3438,19 +3438,19 @@
         <v>1216527</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1152166</v>
+        <v>1145698</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1283426</v>
+        <v>1278633</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.1675238583434924</v>
+        <v>0.1675238583434923</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.158660883509101</v>
+        <v>0.1577702516031705</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1767362656025211</v>
+        <v>0.1760763259713529</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>1567890</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1503782</v>
+        <v>1505727</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1631848</v>
+        <v>1633908</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.444291977942579</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4261258230192241</v>
+        <v>0.4266771235669607</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4624159077385864</v>
+        <v>0.4629996695047525</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2535</v>
@@ -3488,19 +3488,19 @@
         <v>1678376</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1628932</v>
+        <v>1625702</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1736654</v>
+        <v>1728695</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4496233896140648</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4363778061196437</v>
+        <v>0.435512454245429</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4652355510301278</v>
+        <v>0.4631034041934046</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4031</v>
@@ -3509,19 +3509,19 @@
         <v>3246266</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3157811</v>
+        <v>3155387</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3328089</v>
+        <v>3324172</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4470325278310854</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4348516754782791</v>
+        <v>0.434517893360175</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4583000369297314</v>
+        <v>0.4577606720341669</v>
       </c>
     </row>
     <row r="43">
